--- a/src/text/содержание/formated/3 том.xlsx
+++ b/src/text/содержание/formated/3 том.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ayfaar\ii-app\src\main\text\paragraphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ayfaar\ii-app\src\text\содержание\formated\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="15630" windowHeight="6705"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="15630" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2632,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,7 +2641,8 @@
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6019,16 +6020,16 @@
         <v>697</v>
       </c>
       <c r="G81" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f>LEFT(F81,8)</f>
+        <v>Глава 10</v>
       </c>
       <c r="H81" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 10</v>
       </c>
       <c r="I81" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 10. Формирование различных Направлений развития групп ПВК на основе персоналистических Миров "личностей"</v>
+        <v>Формирование различных Направлений развития групп ПВК на основе персоналистических Миров "личностей"</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>229</v>
@@ -6061,16 +6062,16 @@
         <v>697</v>
       </c>
       <c r="G82" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" ref="G82:G106" si="8">LEFT(F82,8)</f>
+        <v>Глава 10</v>
       </c>
       <c r="H82" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 10</v>
       </c>
       <c r="I82" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 10. Формирование различных Направлений развития групп ПВК на основе персоналистических Миров "личностей"</v>
+        <v>Формирование различных Направлений развития групп ПВК на основе персоналистических Миров "личностей"</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>231</v>
@@ -6103,16 +6104,16 @@
         <v>697</v>
       </c>
       <c r="G83" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 10</v>
       </c>
       <c r="H83" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 10</v>
       </c>
       <c r="I83" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 10. Формирование различных Направлений развития групп ПВК на основе персоналистических Миров "личностей"</v>
+        <v>Формирование различных Направлений развития групп ПВК на основе персоналистических Миров "личностей"</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>233</v>
@@ -6145,16 +6146,16 @@
         <v>697</v>
       </c>
       <c r="G84" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 10</v>
       </c>
       <c r="H84" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 10</v>
       </c>
       <c r="I84" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 10. Формирование различных Направлений развития групп ПВК на основе персоналистических Миров "личностей"</v>
+        <v>Формирование различных Направлений развития групп ПВК на основе персоналистических Миров "личностей"</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>236</v>
@@ -6187,16 +6188,16 @@
         <v>697</v>
       </c>
       <c r="G85" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 10</v>
       </c>
       <c r="H85" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 10</v>
       </c>
       <c r="I85" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 10. Формирование различных Направлений развития групп ПВК на основе персоналистических Миров "личностей"</v>
+        <v>Формирование различных Направлений развития групп ПВК на основе персоналистических Миров "личностей"</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>239</v>
@@ -6229,16 +6230,16 @@
         <v>697</v>
       </c>
       <c r="G86" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 10</v>
       </c>
       <c r="H86" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 10</v>
       </c>
       <c r="I86" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 10. Формирование различных Направлений развития групп ПВК на основе персоналистических Миров "личностей"</v>
+        <v>Формирование различных Направлений развития групп ПВК на основе персоналистических Миров "личностей"</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>242</v>
@@ -6271,16 +6272,16 @@
         <v>245</v>
       </c>
       <c r="G87" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H87" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I87" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>246</v>
@@ -6313,16 +6314,16 @@
         <v>245</v>
       </c>
       <c r="G88" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H88" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I88" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>249</v>
@@ -6355,16 +6356,16 @@
         <v>245</v>
       </c>
       <c r="G89" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H89" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I89" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>252</v>
@@ -6397,16 +6398,16 @@
         <v>245</v>
       </c>
       <c r="G90" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H90" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I90" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>255</v>
@@ -6439,16 +6440,16 @@
         <v>245</v>
       </c>
       <c r="G91" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H91" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I91" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>258</v>
@@ -6481,16 +6482,16 @@
         <v>245</v>
       </c>
       <c r="G92" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H92" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I92" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>261</v>
@@ -6523,16 +6524,16 @@
         <v>245</v>
       </c>
       <c r="G93" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H93" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I93" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>264</v>
@@ -6565,16 +6566,16 @@
         <v>245</v>
       </c>
       <c r="G94" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H94" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I94" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>267</v>
@@ -6607,16 +6608,16 @@
         <v>245</v>
       </c>
       <c r="G95" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H95" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I95" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>269</v>
@@ -6649,16 +6650,16 @@
         <v>245</v>
       </c>
       <c r="G96" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H96" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I96" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>271</v>
@@ -6691,16 +6692,16 @@
         <v>245</v>
       </c>
       <c r="G97" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H97" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I97" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>274</v>
@@ -6733,16 +6734,16 @@
         <v>245</v>
       </c>
       <c r="G98" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H98" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I98" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>277</v>
@@ -6775,16 +6776,16 @@
         <v>245</v>
       </c>
       <c r="G99" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H99" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I99" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>280</v>
@@ -6817,16 +6818,16 @@
         <v>245</v>
       </c>
       <c r="G100" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H100" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I100" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>283</v>
@@ -6859,16 +6860,16 @@
         <v>245</v>
       </c>
       <c r="G101" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H101" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I101" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>285</v>
@@ -6901,16 +6902,16 @@
         <v>245</v>
       </c>
       <c r="G102" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H102" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I102" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>287</v>
@@ -6943,16 +6944,16 @@
         <v>245</v>
       </c>
       <c r="G103" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H103" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I103" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>290</v>
@@ -6985,16 +6986,16 @@
         <v>245</v>
       </c>
       <c r="G104" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H104" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I104" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>292</v>
@@ -7027,16 +7028,16 @@
         <v>245</v>
       </c>
       <c r="G105" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H105" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I105" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>294</v>
@@ -7069,16 +7070,16 @@
         <v>245</v>
       </c>
       <c r="G106" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Глава 1</v>
+        <f t="shared" si="8"/>
+        <v>Глава 11</v>
       </c>
       <c r="H106" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 11</v>
       </c>
       <c r="I106" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Глава 11. Механизмы образования иллюзии окружающей действительности в Самосознании</v>
+        <v>Механизмы образования иллюзии окружающей действительности в Самосознании</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>297</v>
@@ -8025,7 +8026,7 @@
         <v>299</v>
       </c>
       <c r="D129" s="5" t="str">
-        <f t="shared" ref="D129:D192" si="8">A129&amp;" / "&amp;C129</f>
+        <f t="shared" ref="D129:D192" si="9">A129&amp;" / "&amp;C129</f>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E129" s="3" t="s">
@@ -8035,11 +8036,11 @@
         <v>323</v>
       </c>
       <c r="G129" s="5" t="str">
-        <f t="shared" ref="G129:G192" si="9">LEFT(F129,7)</f>
+        <f t="shared" ref="G129:G192" si="10">LEFT(F129,7)</f>
         <v>Глава 2</v>
       </c>
       <c r="H129" s="5" t="str">
-        <f t="shared" ref="H129:H192" si="10">D129&amp;" / "&amp;G129</f>
+        <f t="shared" ref="H129:H192" si="11">D129&amp;" / "&amp;G129</f>
         <v>Основы / Раздел Х / Глава 2</v>
       </c>
       <c r="I129" s="5" t="str">
@@ -8067,7 +8068,7 @@
         <v>299</v>
       </c>
       <c r="D130" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E130" s="3" t="s">
@@ -8077,15 +8078,15 @@
         <v>365</v>
       </c>
       <c r="G130" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 3</v>
       </c>
       <c r="H130" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 3</v>
       </c>
       <c r="I130" s="5" t="str">
-        <f t="shared" ref="I130:I193" si="11">SUBSTITUTE(F130,G130&amp;". ","")</f>
+        <f t="shared" ref="I130:I193" si="12">SUBSTITUTE(F130,G130&amp;". ","")</f>
         <v>Инфо- и  Формо-Творцы аиййяического типа бирвуляртности</v>
       </c>
       <c r="J130" s="3" t="s">
@@ -8109,7 +8110,7 @@
         <v>299</v>
       </c>
       <c r="D131" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E131" s="3" t="s">
@@ -8119,15 +8120,15 @@
         <v>365</v>
       </c>
       <c r="G131" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 3</v>
       </c>
       <c r="H131" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 3</v>
       </c>
       <c r="I131" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Инфо- и  Формо-Творцы аиййяического типа бирвуляртности</v>
       </c>
       <c r="J131" s="3" t="s">
@@ -8151,7 +8152,7 @@
         <v>299</v>
       </c>
       <c r="D132" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E132" s="3" t="s">
@@ -8161,15 +8162,15 @@
         <v>365</v>
       </c>
       <c r="G132" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 3</v>
       </c>
       <c r="H132" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 3</v>
       </c>
       <c r="I132" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Инфо- и  Формо-Творцы аиййяического типа бирвуляртности</v>
       </c>
       <c r="J132" s="3" t="s">
@@ -8193,7 +8194,7 @@
         <v>299</v>
       </c>
       <c r="D133" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E133" s="3" t="s">
@@ -8203,15 +8204,15 @@
         <v>365</v>
       </c>
       <c r="G133" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 3</v>
       </c>
       <c r="H133" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 3</v>
       </c>
       <c r="I133" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Инфо- и  Формо-Творцы аиййяического типа бирвуляртности</v>
       </c>
       <c r="J133" s="3" t="s">
@@ -8235,7 +8236,7 @@
         <v>299</v>
       </c>
       <c r="D134" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E134" s="3" t="s">
@@ -8245,15 +8246,15 @@
         <v>365</v>
       </c>
       <c r="G134" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 3</v>
       </c>
       <c r="H134" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 3</v>
       </c>
       <c r="I134" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Инфо- и  Формо-Творцы аиййяического типа бирвуляртности</v>
       </c>
       <c r="J134" s="3" t="s">
@@ -8277,7 +8278,7 @@
         <v>299</v>
       </c>
       <c r="D135" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E135" s="3" t="s">
@@ -8287,15 +8288,15 @@
         <v>365</v>
       </c>
       <c r="G135" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 3</v>
       </c>
       <c r="H135" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 3</v>
       </c>
       <c r="I135" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Инфо- и  Формо-Творцы аиййяического типа бирвуляртности</v>
       </c>
       <c r="J135" s="3" t="s">
@@ -8319,7 +8320,7 @@
         <v>299</v>
       </c>
       <c r="D136" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E136" s="3" t="s">
@@ -8329,15 +8330,15 @@
         <v>384</v>
       </c>
       <c r="G136" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 4</v>
       </c>
       <c r="H136" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 4</v>
       </c>
       <c r="I136" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Субтеррансивная классификация ЛЛУУ-ВВУ-Формы</v>
       </c>
       <c r="J136" s="3" t="s">
@@ -8361,7 +8362,7 @@
         <v>299</v>
       </c>
       <c r="D137" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E137" s="3" t="s">
@@ -8371,15 +8372,15 @@
         <v>384</v>
       </c>
       <c r="G137" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 4</v>
       </c>
       <c r="H137" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 4</v>
       </c>
       <c r="I137" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Субтеррансивная классификация ЛЛУУ-ВВУ-Формы</v>
       </c>
       <c r="J137" s="3" t="s">
@@ -8403,7 +8404,7 @@
         <v>299</v>
       </c>
       <c r="D138" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E138" s="3" t="s">
@@ -8413,15 +8414,15 @@
         <v>384</v>
       </c>
       <c r="G138" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 4</v>
       </c>
       <c r="H138" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 4</v>
       </c>
       <c r="I138" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Субтеррансивная классификация ЛЛУУ-ВВУ-Формы</v>
       </c>
       <c r="J138" s="3" t="s">
@@ -8445,7 +8446,7 @@
         <v>299</v>
       </c>
       <c r="D139" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E139" s="3" t="s">
@@ -8455,15 +8456,15 @@
         <v>384</v>
       </c>
       <c r="G139" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 4</v>
       </c>
       <c r="H139" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 4</v>
       </c>
       <c r="I139" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Субтеррансивная классификация ЛЛУУ-ВВУ-Формы</v>
       </c>
       <c r="J139" s="3" t="s">
@@ -8487,7 +8488,7 @@
         <v>299</v>
       </c>
       <c r="D140" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E140" s="3" t="s">
@@ -8497,15 +8498,15 @@
         <v>395</v>
       </c>
       <c r="G140" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 5</v>
       </c>
       <c r="H140" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 5</v>
       </c>
       <c r="I140" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Характеристики Примогенитивной Трансцендентальной Составляющей</v>
       </c>
       <c r="J140" s="3" t="s">
@@ -8529,7 +8530,7 @@
         <v>299</v>
       </c>
       <c r="D141" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E141" s="3" t="s">
@@ -8539,15 +8540,15 @@
         <v>395</v>
       </c>
       <c r="G141" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 5</v>
       </c>
       <c r="H141" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 5</v>
       </c>
       <c r="I141" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Характеристики Примогенитивной Трансцендентальной Составляющей</v>
       </c>
       <c r="J141" s="3" t="s">
@@ -8571,7 +8572,7 @@
         <v>299</v>
       </c>
       <c r="D142" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E142" s="3" t="s">
@@ -8581,15 +8582,15 @@
         <v>395</v>
       </c>
       <c r="G142" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 5</v>
       </c>
       <c r="H142" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 5</v>
       </c>
       <c r="I142" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Характеристики Примогенитивной Трансцендентальной Составляющей</v>
       </c>
       <c r="J142" s="3" t="s">
@@ -8613,7 +8614,7 @@
         <v>299</v>
       </c>
       <c r="D143" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E143" s="3" t="s">
@@ -8623,15 +8624,15 @@
         <v>395</v>
       </c>
       <c r="G143" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 5</v>
       </c>
       <c r="H143" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 5</v>
       </c>
       <c r="I143" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Характеристики Примогенитивной Трансцендентальной Составляющей</v>
       </c>
       <c r="J143" s="3" t="s">
@@ -8655,7 +8656,7 @@
         <v>299</v>
       </c>
       <c r="D144" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E144" s="3" t="s">
@@ -8665,15 +8666,15 @@
         <v>395</v>
       </c>
       <c r="G144" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 5</v>
       </c>
       <c r="H144" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 5</v>
       </c>
       <c r="I144" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Характеристики Примогенитивной Трансцендентальной Составляющей</v>
       </c>
       <c r="J144" s="3" t="s">
@@ -8697,7 +8698,7 @@
         <v>299</v>
       </c>
       <c r="D145" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E145" s="3" t="s">
@@ -8707,15 +8708,15 @@
         <v>395</v>
       </c>
       <c r="G145" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 5</v>
       </c>
       <c r="H145" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 5</v>
       </c>
       <c r="I145" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Характеристики Примогенитивной Трансцендентальной Составляющей</v>
       </c>
       <c r="J145" s="3" t="s">
@@ -8739,7 +8740,7 @@
         <v>299</v>
       </c>
       <c r="D146" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E146" s="3" t="s">
@@ -8749,15 +8750,15 @@
         <v>395</v>
       </c>
       <c r="G146" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 5</v>
       </c>
       <c r="H146" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 5</v>
       </c>
       <c r="I146" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Характеристики Примогенитивной Трансцендентальной Составляющей</v>
       </c>
       <c r="J146" s="3" t="s">
@@ -8781,7 +8782,7 @@
         <v>299</v>
       </c>
       <c r="D147" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E147" s="3" t="s">
@@ -8791,15 +8792,15 @@
         <v>395</v>
       </c>
       <c r="G147" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 5</v>
       </c>
       <c r="H147" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 5</v>
       </c>
       <c r="I147" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Характеристики Примогенитивной Трансцендентальной Составляющей</v>
       </c>
       <c r="J147" s="3" t="s">
@@ -8823,7 +8824,7 @@
         <v>299</v>
       </c>
       <c r="D148" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E148" s="3" t="s">
@@ -8833,15 +8834,15 @@
         <v>395</v>
       </c>
       <c r="G148" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 5</v>
       </c>
       <c r="H148" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 5</v>
       </c>
       <c r="I148" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Характеристики Примогенитивной Трансцендентальной Составляющей</v>
       </c>
       <c r="J148" s="3" t="s">
@@ -8865,7 +8866,7 @@
         <v>299</v>
       </c>
       <c r="D149" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E149" s="3" t="s">
@@ -8875,15 +8876,15 @@
         <v>395</v>
       </c>
       <c r="G149" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 5</v>
       </c>
       <c r="H149" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 5</v>
       </c>
       <c r="I149" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Характеристики Примогенитивной Трансцендентальной Составляющей</v>
       </c>
       <c r="J149" s="3" t="s">
@@ -8907,7 +8908,7 @@
         <v>299</v>
       </c>
       <c r="D150" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E150" s="3" t="s">
@@ -8917,15 +8918,15 @@
         <v>395</v>
       </c>
       <c r="G150" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 5</v>
       </c>
       <c r="H150" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 5</v>
       </c>
       <c r="I150" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Характеристики Примогенитивной Трансцендентальной Составляющей</v>
       </c>
       <c r="J150" s="3" t="s">
@@ -8949,7 +8950,7 @@
         <v>299</v>
       </c>
       <c r="D151" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E151" s="3" t="s">
@@ -8959,15 +8960,15 @@
         <v>384</v>
       </c>
       <c r="G151" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 4</v>
       </c>
       <c r="H151" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 4</v>
       </c>
       <c r="I151" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Субтеррансивная классификация ЛЛУУ-ВВУ-Формы</v>
       </c>
       <c r="J151" s="3" t="s">
@@ -8991,7 +8992,7 @@
         <v>299</v>
       </c>
       <c r="D152" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E152" s="3" t="s">
@@ -9001,15 +9002,15 @@
         <v>4</v>
       </c>
       <c r="G152" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 1</v>
       </c>
       <c r="H152" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 1</v>
       </c>
       <c r="I152" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J152" s="3" t="s">
@@ -9033,7 +9034,7 @@
         <v>299</v>
       </c>
       <c r="D153" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E153" s="3" t="s">
@@ -9043,15 +9044,15 @@
         <v>4</v>
       </c>
       <c r="G153" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 1</v>
       </c>
       <c r="H153" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 1</v>
       </c>
       <c r="I153" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J153" s="3" t="s">
@@ -9075,7 +9076,7 @@
         <v>299</v>
       </c>
       <c r="D154" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E154" s="3" t="s">
@@ -9085,15 +9086,15 @@
         <v>4</v>
       </c>
       <c r="G154" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 1</v>
       </c>
       <c r="H154" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 1</v>
       </c>
       <c r="I154" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J154" s="3" t="s">
@@ -9117,7 +9118,7 @@
         <v>299</v>
       </c>
       <c r="D155" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E155" s="3" t="s">
@@ -9127,15 +9128,15 @@
         <v>4</v>
       </c>
       <c r="G155" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 1</v>
       </c>
       <c r="H155" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 1</v>
       </c>
       <c r="I155" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J155" s="3" t="s">
@@ -9159,7 +9160,7 @@
         <v>299</v>
       </c>
       <c r="D156" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E156" s="3" t="s">
@@ -9169,15 +9170,15 @@
         <v>4</v>
       </c>
       <c r="G156" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 1</v>
       </c>
       <c r="H156" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 1</v>
       </c>
       <c r="I156" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J156" s="3" t="s">
@@ -9201,7 +9202,7 @@
         <v>299</v>
       </c>
       <c r="D157" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел Х</v>
       </c>
       <c r="E157" s="3" t="s">
@@ -9211,15 +9212,15 @@
         <v>4</v>
       </c>
       <c r="G157" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 1</v>
       </c>
       <c r="H157" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел Х / Глава 1</v>
       </c>
       <c r="I157" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J157" s="3" t="s">
@@ -9243,7 +9244,7 @@
         <v>443</v>
       </c>
       <c r="D158" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E158" s="3" t="s">
@@ -9253,15 +9254,15 @@
         <v>445</v>
       </c>
       <c r="G158" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 1</v>
       </c>
       <c r="H158" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 1</v>
       </c>
       <c r="I158" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Инфо-Творцы Эфирной (информационной) Составляющей ФЛААГГ-ТУУ</v>
       </c>
       <c r="J158" s="3" t="s">
@@ -9285,7 +9286,7 @@
         <v>443</v>
       </c>
       <c r="D159" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E159" s="3" t="s">
@@ -9295,15 +9296,15 @@
         <v>445</v>
       </c>
       <c r="G159" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 1</v>
       </c>
       <c r="H159" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 1</v>
       </c>
       <c r="I159" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Инфо-Творцы Эфирной (информационной) Составляющей ФЛААГГ-ТУУ</v>
       </c>
       <c r="J159" s="3" t="s">
@@ -9327,7 +9328,7 @@
         <v>443</v>
       </c>
       <c r="D160" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E160" s="3" t="s">
@@ -9337,15 +9338,15 @@
         <v>445</v>
       </c>
       <c r="G160" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 1</v>
       </c>
       <c r="H160" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 1</v>
       </c>
       <c r="I160" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Инфо-Творцы Эфирной (информационной) Составляющей ФЛААГГ-ТУУ</v>
       </c>
       <c r="J160" s="3" t="s">
@@ -9369,7 +9370,7 @@
         <v>443</v>
       </c>
       <c r="D161" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E161" s="3" t="s">
@@ -9379,15 +9380,15 @@
         <v>445</v>
       </c>
       <c r="G161" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 1</v>
       </c>
       <c r="H161" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 1</v>
       </c>
       <c r="I161" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Инфо-Творцы Эфирной (информационной) Составляющей ФЛААГГ-ТУУ</v>
       </c>
       <c r="J161" s="3" t="s">
@@ -9411,7 +9412,7 @@
         <v>443</v>
       </c>
       <c r="D162" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E162" s="3" t="s">
@@ -9421,15 +9422,15 @@
         <v>445</v>
       </c>
       <c r="G162" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 1</v>
       </c>
       <c r="H162" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 1</v>
       </c>
       <c r="I162" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Инфо-Творцы Эфирной (информационной) Составляющей ФЛААГГ-ТУУ</v>
       </c>
       <c r="J162" s="3" t="s">
@@ -9453,7 +9454,7 @@
         <v>443</v>
       </c>
       <c r="D163" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E163" s="3" t="s">
@@ -9463,15 +9464,15 @@
         <v>445</v>
       </c>
       <c r="G163" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 1</v>
       </c>
       <c r="H163" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 1</v>
       </c>
       <c r="I163" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Инфо-Творцы Эфирной (информационной) Составляющей ФЛААГГ-ТУУ</v>
       </c>
       <c r="J163" s="3" t="s">
@@ -9495,7 +9496,7 @@
         <v>443</v>
       </c>
       <c r="D164" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E164" s="3" t="s">
@@ -9505,15 +9506,15 @@
         <v>445</v>
       </c>
       <c r="G164" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 1</v>
       </c>
       <c r="H164" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 1</v>
       </c>
       <c r="I164" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Инфо-Творцы Эфирной (информационной) Составляющей ФЛААГГ-ТУУ</v>
       </c>
       <c r="J164" s="3" t="s">
@@ -9537,7 +9538,7 @@
         <v>443</v>
       </c>
       <c r="D165" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E165" s="3" t="s">
@@ -9547,15 +9548,15 @@
         <v>445</v>
       </c>
       <c r="G165" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 1</v>
       </c>
       <c r="H165" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 1</v>
       </c>
       <c r="I165" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Инфо-Творцы Эфирной (информационной) Составляющей ФЛААГГ-ТУУ</v>
       </c>
       <c r="J165" s="3" t="s">
@@ -9579,7 +9580,7 @@
         <v>443</v>
       </c>
       <c r="D166" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E166" s="3" t="s">
@@ -9589,15 +9590,15 @@
         <v>465</v>
       </c>
       <c r="G166" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 2</v>
       </c>
       <c r="H166" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 2</v>
       </c>
       <c r="I166" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Характеристики амициссимного и конфективного ССС-Состояний</v>
       </c>
       <c r="J166" s="3" t="s">
@@ -9621,7 +9622,7 @@
         <v>443</v>
       </c>
       <c r="D167" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E167" s="3" t="s">
@@ -9631,15 +9632,15 @@
         <v>465</v>
       </c>
       <c r="G167" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 2</v>
       </c>
       <c r="H167" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 2</v>
       </c>
       <c r="I167" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Характеристики амициссимного и конфективного ССС-Состояний</v>
       </c>
       <c r="J167" s="3" t="s">
@@ -9663,7 +9664,7 @@
         <v>443</v>
       </c>
       <c r="D168" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E168" s="3" t="s">
@@ -9673,15 +9674,15 @@
         <v>465</v>
       </c>
       <c r="G168" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 2</v>
       </c>
       <c r="H168" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 2</v>
       </c>
       <c r="I168" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Характеристики амициссимного и конфективного ССС-Состояний</v>
       </c>
       <c r="J168" s="3" t="s">
@@ -9705,7 +9706,7 @@
         <v>443</v>
       </c>
       <c r="D169" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E169" s="3" t="s">
@@ -9715,15 +9716,15 @@
         <v>465</v>
       </c>
       <c r="G169" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 2</v>
       </c>
       <c r="H169" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 2</v>
       </c>
       <c r="I169" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Характеристики амициссимного и конфективного ССС-Состояний</v>
       </c>
       <c r="J169" s="3" t="s">
@@ -9747,7 +9748,7 @@
         <v>443</v>
       </c>
       <c r="D170" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E170" s="3" t="s">
@@ -9757,15 +9758,15 @@
         <v>474</v>
       </c>
       <c r="G170" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 3</v>
       </c>
       <c r="H170" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 3</v>
       </c>
       <c r="I170" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Единый Идиопатический СС-ТОО-ИИЙС-ССС-Ингредиент Мироздания</v>
       </c>
       <c r="J170" s="3" t="s">
@@ -9789,7 +9790,7 @@
         <v>443</v>
       </c>
       <c r="D171" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E171" s="3" t="s">
@@ -9799,15 +9800,15 @@
         <v>474</v>
       </c>
       <c r="G171" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 3</v>
       </c>
       <c r="H171" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 3</v>
       </c>
       <c r="I171" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Единый Идиопатический СС-ТОО-ИИЙС-ССС-Ингредиент Мироздания</v>
       </c>
       <c r="J171" s="3" t="s">
@@ -9831,7 +9832,7 @@
         <v>443</v>
       </c>
       <c r="D172" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E172" s="3" t="s">
@@ -9841,15 +9842,15 @@
         <v>474</v>
       </c>
       <c r="G172" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 3</v>
       </c>
       <c r="H172" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 3</v>
       </c>
       <c r="I172" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Единый Идиопатический СС-ТОО-ИИЙС-ССС-Ингредиент Мироздания</v>
       </c>
       <c r="J172" s="3" t="s">
@@ -9873,7 +9874,7 @@
         <v>443</v>
       </c>
       <c r="D173" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E173" s="3" t="s">
@@ -9883,15 +9884,15 @@
         <v>474</v>
       </c>
       <c r="G173" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 3</v>
       </c>
       <c r="H173" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 3</v>
       </c>
       <c r="I173" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Единый Идиопатический СС-ТОО-ИИЙС-ССС-Ингредиент Мироздания</v>
       </c>
       <c r="J173" s="3" t="s">
@@ -9915,7 +9916,7 @@
         <v>443</v>
       </c>
       <c r="D174" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E174" s="3" t="s">
@@ -9925,15 +9926,15 @@
         <v>474</v>
       </c>
       <c r="G174" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 3</v>
       </c>
       <c r="H174" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 3</v>
       </c>
       <c r="I174" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Единый Идиопатический СС-ТОО-ИИЙС-ССС-Ингредиент Мироздания</v>
       </c>
       <c r="J174" s="3" t="s">
@@ -9957,7 +9958,7 @@
         <v>443</v>
       </c>
       <c r="D175" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E175" s="3" t="s">
@@ -9967,15 +9968,15 @@
         <v>474</v>
       </c>
       <c r="G175" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 3</v>
       </c>
       <c r="H175" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 3</v>
       </c>
       <c r="I175" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Единый Идиопатический СС-ТОО-ИИЙС-ССС-Ингредиент Мироздания</v>
       </c>
       <c r="J175" s="3" t="s">
@@ -9999,7 +10000,7 @@
         <v>443</v>
       </c>
       <c r="D176" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E176" s="3" t="s">
@@ -10009,15 +10010,15 @@
         <v>474</v>
       </c>
       <c r="G176" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 3</v>
       </c>
       <c r="H176" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 3</v>
       </c>
       <c r="I176" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Единый Идиопатический СС-ТОО-ИИЙС-ССС-Ингредиент Мироздания</v>
       </c>
       <c r="J176" s="3" t="s">
@@ -10041,7 +10042,7 @@
         <v>443</v>
       </c>
       <c r="D177" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E177" s="3" t="s">
@@ -10051,15 +10052,15 @@
         <v>474</v>
       </c>
       <c r="G177" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 3</v>
       </c>
       <c r="H177" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 3</v>
       </c>
       <c r="I177" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Единый Идиопатический СС-ТОО-ИИЙС-ССС-Ингредиент Мироздания</v>
       </c>
       <c r="J177" s="3" t="s">
@@ -10083,7 +10084,7 @@
         <v>443</v>
       </c>
       <c r="D178" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E178" s="3" t="s">
@@ -10093,15 +10094,15 @@
         <v>474</v>
       </c>
       <c r="G178" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 3</v>
       </c>
       <c r="H178" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 3</v>
       </c>
       <c r="I178" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Единый Идиопатический СС-ТОО-ИИЙС-ССС-Ингредиент Мироздания</v>
       </c>
       <c r="J178" s="3" t="s">
@@ -10125,7 +10126,7 @@
         <v>443</v>
       </c>
       <c r="D179" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E179" s="3" t="s">
@@ -10135,15 +10136,15 @@
         <v>474</v>
       </c>
       <c r="G179" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 3</v>
       </c>
       <c r="H179" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 3</v>
       </c>
       <c r="I179" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Единый Идиопатический СС-ТОО-ИИЙС-ССС-Ингредиент Мироздания</v>
       </c>
       <c r="J179" s="3" t="s">
@@ -10167,7 +10168,7 @@
         <v>443</v>
       </c>
       <c r="D180" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E180" s="3" t="s">
@@ -10177,15 +10178,15 @@
         <v>500</v>
       </c>
       <c r="G180" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 4</v>
       </c>
       <c r="H180" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 4</v>
       </c>
       <c r="I180" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Некоторые субъективные критерии определения принадлежности Форм Самосознаний к симультанной фокусной реализации Коллективного Космического Разума ЛЛУУ-ВВУ-Сущности</v>
       </c>
       <c r="J180" s="3" t="s">
@@ -10209,7 +10210,7 @@
         <v>443</v>
       </c>
       <c r="D181" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E181" s="3" t="s">
@@ -10219,15 +10220,15 @@
         <v>500</v>
       </c>
       <c r="G181" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 4</v>
       </c>
       <c r="H181" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 4</v>
       </c>
       <c r="I181" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Некоторые субъективные критерии определения принадлежности Форм Самосознаний к симультанной фокусной реализации Коллективного Космического Разума ЛЛУУ-ВВУ-Сущности</v>
       </c>
       <c r="J181" s="3" t="s">
@@ -10251,7 +10252,7 @@
         <v>443</v>
       </c>
       <c r="D182" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E182" s="3" t="s">
@@ -10261,15 +10262,15 @@
         <v>500</v>
       </c>
       <c r="G182" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 4</v>
       </c>
       <c r="H182" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 4</v>
       </c>
       <c r="I182" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Некоторые субъективные критерии определения принадлежности Форм Самосознаний к симультанной фокусной реализации Коллективного Космического Разума ЛЛУУ-ВВУ-Сущности</v>
       </c>
       <c r="J182" s="3" t="s">
@@ -10293,7 +10294,7 @@
         <v>443</v>
       </c>
       <c r="D183" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E183" s="3" t="s">
@@ -10303,15 +10304,15 @@
         <v>500</v>
       </c>
       <c r="G183" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 4</v>
       </c>
       <c r="H183" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 4</v>
       </c>
       <c r="I183" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Некоторые субъективные критерии определения принадлежности Форм Самосознаний к симультанной фокусной реализации Коллективного Космического Разума ЛЛУУ-ВВУ-Сущности</v>
       </c>
       <c r="J183" s="3" t="s">
@@ -10335,7 +10336,7 @@
         <v>443</v>
       </c>
       <c r="D184" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E184" s="3" t="s">
@@ -10345,15 +10346,15 @@
         <v>500</v>
       </c>
       <c r="G184" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 4</v>
       </c>
       <c r="H184" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 4</v>
       </c>
       <c r="I184" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Некоторые субъективные критерии определения принадлежности Форм Самосознаний к симультанной фокусной реализации Коллективного Космического Разума ЛЛУУ-ВВУ-Сущности</v>
       </c>
       <c r="J184" s="3" t="s">
@@ -10377,7 +10378,7 @@
         <v>443</v>
       </c>
       <c r="D185" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E185" s="3" t="s">
@@ -10387,15 +10388,15 @@
         <v>500</v>
       </c>
       <c r="G185" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 4</v>
       </c>
       <c r="H185" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 4</v>
       </c>
       <c r="I185" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Некоторые субъективные критерии определения принадлежности Форм Самосознаний к симультанной фокусной реализации Коллективного Космического Разума ЛЛУУ-ВВУ-Сущности</v>
       </c>
       <c r="J185" s="3" t="s">
@@ -10419,7 +10420,7 @@
         <v>443</v>
       </c>
       <c r="D186" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E186" s="3" t="s">
@@ -10429,15 +10430,15 @@
         <v>519</v>
       </c>
       <c r="G186" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 5</v>
       </c>
       <c r="H186" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 5</v>
       </c>
       <c r="I186" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Формо-дифференцирующие временные оболочки НУУ-ВУУ-Формо-Типов</v>
       </c>
       <c r="J186" s="3" t="s">
@@ -10461,7 +10462,7 @@
         <v>443</v>
       </c>
       <c r="D187" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E187" s="3" t="s">
@@ -10471,15 +10472,15 @@
         <v>519</v>
       </c>
       <c r="G187" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 5</v>
       </c>
       <c r="H187" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 5</v>
       </c>
       <c r="I187" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Формо-дифференцирующие временные оболочки НУУ-ВУУ-Формо-Типов</v>
       </c>
       <c r="J187" s="3" t="s">
@@ -10503,7 +10504,7 @@
         <v>443</v>
       </c>
       <c r="D188" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E188" s="3" t="s">
@@ -10513,15 +10514,15 @@
         <v>519</v>
       </c>
       <c r="G188" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 5</v>
       </c>
       <c r="H188" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 5</v>
       </c>
       <c r="I188" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Формо-дифференцирующие временные оболочки НУУ-ВУУ-Формо-Типов</v>
       </c>
       <c r="J188" s="3" t="s">
@@ -10545,7 +10546,7 @@
         <v>443</v>
       </c>
       <c r="D189" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E189" s="3" t="s">
@@ -10555,15 +10556,15 @@
         <v>519</v>
       </c>
       <c r="G189" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 5</v>
       </c>
       <c r="H189" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 5</v>
       </c>
       <c r="I189" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Формо-дифференцирующие временные оболочки НУУ-ВУУ-Формо-Типов</v>
       </c>
       <c r="J189" s="3" t="s">
@@ -10587,7 +10588,7 @@
         <v>443</v>
       </c>
       <c r="D190" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E190" s="3" t="s">
@@ -10597,15 +10598,15 @@
         <v>532</v>
       </c>
       <c r="G190" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 6</v>
       </c>
       <c r="H190" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 6</v>
       </c>
       <c r="I190" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Астроплазменная лутальная Временная Эфирная Наполняющая НУУ-ВВУ-Формо-Типов ФДВО (СВУУЛЛМИИ-СВУУ-ВВУ)</v>
       </c>
       <c r="J190" s="3" t="s">
@@ -10629,7 +10630,7 @@
         <v>443</v>
       </c>
       <c r="D191" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E191" s="3" t="s">
@@ -10639,15 +10640,15 @@
         <v>532</v>
       </c>
       <c r="G191" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 6</v>
       </c>
       <c r="H191" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 6</v>
       </c>
       <c r="I191" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Астроплазменная лутальная Временная Эфирная Наполняющая НУУ-ВВУ-Формо-Типов ФДВО (СВУУЛЛМИИ-СВУУ-ВВУ)</v>
       </c>
       <c r="J191" s="3" t="s">
@@ -10671,7 +10672,7 @@
         <v>443</v>
       </c>
       <c r="D192" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E192" s="3" t="s">
@@ -10681,15 +10682,15 @@
         <v>532</v>
       </c>
       <c r="G192" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Глава 6</v>
       </c>
       <c r="H192" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Основы / Раздел ХI / Глава 6</v>
       </c>
       <c r="I192" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Астроплазменная лутальная Временная Эфирная Наполняющая НУУ-ВВУ-Формо-Типов ФДВО (СВУУЛЛМИИ-СВУУ-ВВУ)</v>
       </c>
       <c r="J192" s="3" t="s">
@@ -10713,7 +10714,7 @@
         <v>443</v>
       </c>
       <c r="D193" s="5" t="str">
-        <f t="shared" ref="D193:D238" si="12">A193&amp;" / "&amp;C193</f>
+        <f t="shared" ref="D193:D238" si="13">A193&amp;" / "&amp;C193</f>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E193" s="3" t="s">
@@ -10723,15 +10724,15 @@
         <v>541</v>
       </c>
       <c r="G193" s="5" t="str">
-        <f t="shared" ref="G193:G238" si="13">LEFT(F193,7)</f>
+        <f t="shared" ref="G193:G238" si="14">LEFT(F193,7)</f>
         <v>Глава 7</v>
       </c>
       <c r="H193" s="5" t="str">
-        <f t="shared" ref="H193:H238" si="14">D193&amp;" / "&amp;G193</f>
+        <f t="shared" ref="H193:H238" si="15">D193&amp;" / "&amp;G193</f>
         <v>Основы / Раздел ХI / Глава 7</v>
       </c>
       <c r="I193" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Ментоплазменная лутальная Временная Эфирная Наполняющая НУУ-ВВУ-Формо-Типов ФДВО (ЛУУДМИИ-СВУУ-ВВУ)</v>
       </c>
       <c r="J193" s="3" t="s">
@@ -10755,7 +10756,7 @@
         <v>443</v>
       </c>
       <c r="D194" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E194" s="3" t="s">
@@ -10765,15 +10766,15 @@
         <v>541</v>
       </c>
       <c r="G194" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 7</v>
       </c>
       <c r="H194" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХI / Глава 7</v>
       </c>
       <c r="I194" s="5" t="str">
-        <f t="shared" ref="I194:I238" si="15">SUBSTITUTE(F194,G194&amp;". ","")</f>
+        <f t="shared" ref="I194:I238" si="16">SUBSTITUTE(F194,G194&amp;". ","")</f>
         <v>Ментоплазменная лутальная Временная Эфирная Наполняющая НУУ-ВВУ-Формо-Типов ФДВО (ЛУУДМИИ-СВУУ-ВВУ)</v>
       </c>
       <c r="J194" s="3" t="s">
@@ -10797,7 +10798,7 @@
         <v>443</v>
       </c>
       <c r="D195" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E195" s="3" t="s">
@@ -10807,15 +10808,15 @@
         <v>547</v>
       </c>
       <c r="G195" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 8</v>
       </c>
       <c r="H195" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХI / Глава 8</v>
       </c>
       <c r="I195" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Прочие амплиативные Тела и Формы ЛЛУУ-ВВУ-Сущности</v>
       </c>
       <c r="J195" s="3" t="s">
@@ -10839,7 +10840,7 @@
         <v>443</v>
       </c>
       <c r="D196" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E196" s="3" t="s">
@@ -10849,15 +10850,15 @@
         <v>547</v>
       </c>
       <c r="G196" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 8</v>
       </c>
       <c r="H196" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХI / Глава 8</v>
       </c>
       <c r="I196" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Прочие амплиативные Тела и Формы ЛЛУУ-ВВУ-Сущности</v>
       </c>
       <c r="J196" s="3" t="s">
@@ -10881,7 +10882,7 @@
         <v>443</v>
       </c>
       <c r="D197" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E197" s="3" t="s">
@@ -10891,15 +10892,15 @@
         <v>547</v>
       </c>
       <c r="G197" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 8</v>
       </c>
       <c r="H197" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХI / Глава 8</v>
       </c>
       <c r="I197" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Прочие амплиативные Тела и Формы ЛЛУУ-ВВУ-Сущности</v>
       </c>
       <c r="J197" s="3" t="s">
@@ -10923,7 +10924,7 @@
         <v>443</v>
       </c>
       <c r="D198" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E198" s="3" t="s">
@@ -10933,15 +10934,15 @@
         <v>547</v>
       </c>
       <c r="G198" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 8</v>
       </c>
       <c r="H198" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХI / Глава 8</v>
       </c>
       <c r="I198" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Прочие амплиативные Тела и Формы ЛЛУУ-ВВУ-Сущности</v>
       </c>
       <c r="J198" s="3" t="s">
@@ -10965,7 +10966,7 @@
         <v>443</v>
       </c>
       <c r="D199" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E199" s="3" t="s">
@@ -10975,15 +10976,15 @@
         <v>547</v>
       </c>
       <c r="G199" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 8</v>
       </c>
       <c r="H199" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХI / Глава 8</v>
       </c>
       <c r="I199" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Прочие амплиативные Тела и Формы ЛЛУУ-ВВУ-Сущности</v>
       </c>
       <c r="J199" s="3" t="s">
@@ -11007,7 +11008,7 @@
         <v>443</v>
       </c>
       <c r="D200" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХI</v>
       </c>
       <c r="E200" s="3" t="s">
@@ -11017,15 +11018,15 @@
         <v>547</v>
       </c>
       <c r="G200" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 8</v>
       </c>
       <c r="H200" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХI / Глава 8</v>
       </c>
       <c r="I200" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Прочие амплиативные Тела и Формы ЛЛУУ-ВВУ-Сущности</v>
       </c>
       <c r="J200" s="3" t="s">
@@ -11049,7 +11050,7 @@
         <v>562</v>
       </c>
       <c r="D201" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E201" s="3" t="s">
@@ -11059,15 +11060,15 @@
         <v>564</v>
       </c>
       <c r="G201" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 1</v>
       </c>
       <c r="H201" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 1</v>
       </c>
       <c r="I201" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Комплекс-Планы, План-Уровни, План-Обертоны и взаимосвязи между ними</v>
       </c>
       <c r="J201" s="3" t="s">
@@ -11091,7 +11092,7 @@
         <v>562</v>
       </c>
       <c r="D202" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E202" s="3" t="s">
@@ -11101,15 +11102,15 @@
         <v>564</v>
       </c>
       <c r="G202" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 1</v>
       </c>
       <c r="H202" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 1</v>
       </c>
       <c r="I202" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Комплекс-Планы, План-Уровни, План-Обертоны и взаимосвязи между ними</v>
       </c>
       <c r="J202" s="3" t="s">
@@ -11133,7 +11134,7 @@
         <v>562</v>
       </c>
       <c r="D203" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E203" s="3" t="s">
@@ -11143,15 +11144,15 @@
         <v>564</v>
       </c>
       <c r="G203" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 1</v>
       </c>
       <c r="H203" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 1</v>
       </c>
       <c r="I203" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Комплекс-Планы, План-Уровни, План-Обертоны и взаимосвязи между ними</v>
       </c>
       <c r="J203" s="3" t="s">
@@ -11175,7 +11176,7 @@
         <v>562</v>
       </c>
       <c r="D204" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E204" s="3" t="s">
@@ -11185,15 +11186,15 @@
         <v>564</v>
       </c>
       <c r="G204" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 1</v>
       </c>
       <c r="H204" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 1</v>
       </c>
       <c r="I204" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Комплекс-Планы, План-Уровни, План-Обертоны и взаимосвязи между ними</v>
       </c>
       <c r="J204" s="3" t="s">
@@ -11217,7 +11218,7 @@
         <v>562</v>
       </c>
       <c r="D205" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E205" s="3" t="s">
@@ -11227,15 +11228,15 @@
         <v>564</v>
       </c>
       <c r="G205" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 1</v>
       </c>
       <c r="H205" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 1</v>
       </c>
       <c r="I205" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Комплекс-Планы, План-Уровни, План-Обертоны и взаимосвязи между ними</v>
       </c>
       <c r="J205" s="3" t="s">
@@ -11259,7 +11260,7 @@
         <v>562</v>
       </c>
       <c r="D206" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E206" s="3" t="s">
@@ -11269,15 +11270,15 @@
         <v>564</v>
       </c>
       <c r="G206" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 1</v>
       </c>
       <c r="H206" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 1</v>
       </c>
       <c r="I206" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Комплекс-Планы, План-Уровни, План-Обертоны и взаимосвязи между ними</v>
       </c>
       <c r="J206" s="3" t="s">
@@ -11301,7 +11302,7 @@
         <v>562</v>
       </c>
       <c r="D207" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E207" s="3" t="s">
@@ -11311,15 +11312,15 @@
         <v>564</v>
       </c>
       <c r="G207" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 1</v>
       </c>
       <c r="H207" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 1</v>
       </c>
       <c r="I207" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Комплекс-Планы, План-Уровни, План-Обертоны и взаимосвязи между ними</v>
       </c>
       <c r="J207" s="3" t="s">
@@ -11343,7 +11344,7 @@
         <v>562</v>
       </c>
       <c r="D208" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E208" s="3" t="s">
@@ -11353,15 +11354,15 @@
         <v>564</v>
       </c>
       <c r="G208" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 1</v>
       </c>
       <c r="H208" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 1</v>
       </c>
       <c r="I208" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Комплекс-Планы, План-Уровни, План-Обертоны и взаимосвязи между ними</v>
       </c>
       <c r="J208" s="3" t="s">
@@ -11385,7 +11386,7 @@
         <v>562</v>
       </c>
       <c r="D209" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E209" s="3" t="s">
@@ -11395,15 +11396,15 @@
         <v>588</v>
       </c>
       <c r="G209" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 2</v>
       </c>
       <c r="H209" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 2</v>
       </c>
       <c r="I209" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ДПС и их бесконечные трансформации при померностной амицирации</v>
       </c>
       <c r="J209" s="3" t="s">
@@ -11427,7 +11428,7 @@
         <v>562</v>
       </c>
       <c r="D210" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E210" s="3" t="s">
@@ -11437,15 +11438,15 @@
         <v>588</v>
       </c>
       <c r="G210" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 2</v>
       </c>
       <c r="H210" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 2</v>
       </c>
       <c r="I210" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ДПС и их бесконечные трансформации при померностной амицирации</v>
       </c>
       <c r="J210" s="3" t="s">
@@ -11469,7 +11470,7 @@
         <v>562</v>
       </c>
       <c r="D211" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E211" s="3" t="s">
@@ -11479,15 +11480,15 @@
         <v>588</v>
       </c>
       <c r="G211" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 2</v>
       </c>
       <c r="H211" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 2</v>
       </c>
       <c r="I211" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ДПС и их бесконечные трансформации при померностной амицирации</v>
       </c>
       <c r="J211" s="3" t="s">
@@ -11511,7 +11512,7 @@
         <v>562</v>
       </c>
       <c r="D212" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E212" s="3" t="s">
@@ -11521,15 +11522,15 @@
         <v>588</v>
       </c>
       <c r="G212" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 2</v>
       </c>
       <c r="H212" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 2</v>
       </c>
       <c r="I212" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ДПС и их бесконечные трансформации при померностной амицирации</v>
       </c>
       <c r="J212" s="3" t="s">
@@ -11553,7 +11554,7 @@
         <v>562</v>
       </c>
       <c r="D213" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E213" s="3" t="s">
@@ -11563,15 +11564,15 @@
         <v>588</v>
       </c>
       <c r="G213" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 2</v>
       </c>
       <c r="H213" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 2</v>
       </c>
       <c r="I213" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ДПС и их бесконечные трансформации при померностной амицирации</v>
       </c>
       <c r="J213" s="3" t="s">
@@ -11595,7 +11596,7 @@
         <v>562</v>
       </c>
       <c r="D214" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E214" s="3" t="s">
@@ -11605,15 +11606,15 @@
         <v>588</v>
       </c>
       <c r="G214" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 2</v>
       </c>
       <c r="H214" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 2</v>
       </c>
       <c r="I214" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ДПС и их бесконечные трансформации при померностной амицирации</v>
       </c>
       <c r="J214" s="3" t="s">
@@ -11637,7 +11638,7 @@
         <v>562</v>
       </c>
       <c r="D215" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E215" s="3" t="s">
@@ -11647,15 +11648,15 @@
         <v>588</v>
       </c>
       <c r="G215" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 2</v>
       </c>
       <c r="H215" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 2</v>
       </c>
       <c r="I215" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ДПС и их бесконечные трансформации при померностной амицирации</v>
       </c>
       <c r="J215" s="3" t="s">
@@ -11679,7 +11680,7 @@
         <v>562</v>
       </c>
       <c r="D216" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E216" s="3" t="s">
@@ -11689,15 +11690,15 @@
         <v>588</v>
       </c>
       <c r="G216" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 2</v>
       </c>
       <c r="H216" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 2</v>
       </c>
       <c r="I216" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ДПС и их бесконечные трансформации при померностной амицирации</v>
       </c>
       <c r="J216" s="3" t="s">
@@ -11721,7 +11722,7 @@
         <v>562</v>
       </c>
       <c r="D217" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E217" s="3" t="s">
@@ -11731,15 +11732,15 @@
         <v>588</v>
       </c>
       <c r="G217" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 2</v>
       </c>
       <c r="H217" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 2</v>
       </c>
       <c r="I217" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ДПС и их бесконечные трансформации при померностной амицирации</v>
       </c>
       <c r="J217" s="3" t="s">
@@ -11763,7 +11764,7 @@
         <v>562</v>
       </c>
       <c r="D218" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E218" s="3" t="s">
@@ -11773,15 +11774,15 @@
         <v>588</v>
       </c>
       <c r="G218" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 2</v>
       </c>
       <c r="H218" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 2</v>
       </c>
       <c r="I218" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ДПС и их бесконечные трансформации при померностной амицирации</v>
       </c>
       <c r="J218" s="3" t="s">
@@ -11805,7 +11806,7 @@
         <v>562</v>
       </c>
       <c r="D219" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E219" s="3" t="s">
@@ -11815,15 +11816,15 @@
         <v>745</v>
       </c>
       <c r="G219" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 3</v>
       </c>
       <c r="H219" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 3</v>
       </c>
       <c r="I219" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>«СЕКТОРА», «ПОДСЕКТОРА», «ПОТОКИ» и «ЛУЧИ» сочетаний Чистых Космических Качеств. Общий Принцип образования Вселенской Кармы</v>
       </c>
       <c r="J219" s="3" t="s">
@@ -11847,7 +11848,7 @@
         <v>562</v>
       </c>
       <c r="D220" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E220" s="3" t="s">
@@ -11857,15 +11858,15 @@
         <v>745</v>
       </c>
       <c r="G220" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 3</v>
       </c>
       <c r="H220" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 3</v>
       </c>
       <c r="I220" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>«СЕКТОРА», «ПОДСЕКТОРА», «ПОТОКИ» и «ЛУЧИ» сочетаний Чистых Космических Качеств. Общий Принцип образования Вселенской Кармы</v>
       </c>
       <c r="J220" s="3" t="s">
@@ -11889,7 +11890,7 @@
         <v>562</v>
       </c>
       <c r="D221" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E221" s="3" t="s">
@@ -11899,15 +11900,15 @@
         <v>745</v>
       </c>
       <c r="G221" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 3</v>
       </c>
       <c r="H221" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 3</v>
       </c>
       <c r="I221" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>«СЕКТОРА», «ПОДСЕКТОРА», «ПОТОКИ» и «ЛУЧИ» сочетаний Чистых Космических Качеств. Общий Принцип образования Вселенской Кармы</v>
       </c>
       <c r="J221" s="3" t="s">
@@ -11931,7 +11932,7 @@
         <v>562</v>
       </c>
       <c r="D222" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E222" s="3" t="s">
@@ -11941,15 +11942,15 @@
         <v>745</v>
       </c>
       <c r="G222" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 3</v>
       </c>
       <c r="H222" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 3</v>
       </c>
       <c r="I222" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>«СЕКТОРА», «ПОДСЕКТОРА», «ПОТОКИ» и «ЛУЧИ» сочетаний Чистых Космических Качеств. Общий Принцип образования Вселенской Кармы</v>
       </c>
       <c r="J222" s="3" t="s">
@@ -11973,7 +11974,7 @@
         <v>562</v>
       </c>
       <c r="D223" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E223" s="3" t="s">
@@ -11983,15 +11984,15 @@
         <v>745</v>
       </c>
       <c r="G223" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 3</v>
       </c>
       <c r="H223" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 3</v>
       </c>
       <c r="I223" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>«СЕКТОРА», «ПОДСЕКТОРА», «ПОТОКИ» и «ЛУЧИ» сочетаний Чистых Космических Качеств. Общий Принцип образования Вселенской Кармы</v>
       </c>
       <c r="J223" s="3" t="s">
@@ -12015,7 +12016,7 @@
         <v>562</v>
       </c>
       <c r="D224" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E224" s="3" t="s">
@@ -12025,15 +12026,15 @@
         <v>745</v>
       </c>
       <c r="G224" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 3</v>
       </c>
       <c r="H224" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 3</v>
       </c>
       <c r="I224" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>«СЕКТОРА», «ПОДСЕКТОРА», «ПОТОКИ» и «ЛУЧИ» сочетаний Чистых Космических Качеств. Общий Принцип образования Вселенской Кармы</v>
       </c>
       <c r="J224" s="3" t="s">
@@ -12057,7 +12058,7 @@
         <v>562</v>
       </c>
       <c r="D225" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E225" s="3" t="s">
@@ -12067,15 +12068,15 @@
         <v>629</v>
       </c>
       <c r="G225" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 4</v>
       </c>
       <c r="H225" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 4</v>
       </c>
       <c r="I225" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Межгалактические Комплекс-Планы ССУУ-СС-ВУУ-Сферы Творчества АИЙ-ЙЯ</v>
       </c>
       <c r="J225" s="3" t="s">
@@ -12099,7 +12100,7 @@
         <v>562</v>
       </c>
       <c r="D226" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E226" s="3" t="s">
@@ -12109,15 +12110,15 @@
         <v>629</v>
       </c>
       <c r="G226" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 4</v>
       </c>
       <c r="H226" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 4</v>
       </c>
       <c r="I226" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Межгалактические Комплекс-Планы ССУУ-СС-ВУУ-Сферы Творчества АИЙ-ЙЯ</v>
       </c>
       <c r="J226" s="3" t="s">
@@ -12141,7 +12142,7 @@
         <v>562</v>
       </c>
       <c r="D227" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E227" s="3" t="s">
@@ -12151,15 +12152,15 @@
         <v>629</v>
       </c>
       <c r="G227" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 4</v>
       </c>
       <c r="H227" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 4</v>
       </c>
       <c r="I227" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Межгалактические Комплекс-Планы ССУУ-СС-ВУУ-Сферы Творчества АИЙ-ЙЯ</v>
       </c>
       <c r="J227" s="3" t="s">
@@ -12183,7 +12184,7 @@
         <v>562</v>
       </c>
       <c r="D228" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E228" s="3" t="s">
@@ -12193,15 +12194,15 @@
         <v>639</v>
       </c>
       <c r="G228" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 5</v>
       </c>
       <c r="H228" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 5</v>
       </c>
       <c r="I228" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Космические План-Уровни НАА-ГЛЛИИ-УУ-Сферы Творчества АИЙ-ЙЯ</v>
       </c>
       <c r="J228" s="3" t="s">
@@ -12225,7 +12226,7 @@
         <v>562</v>
       </c>
       <c r="D229" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E229" s="3" t="s">
@@ -12235,15 +12236,15 @@
         <v>639</v>
       </c>
       <c r="G229" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 5</v>
       </c>
       <c r="H229" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 5</v>
       </c>
       <c r="I229" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Космические План-Уровни НАА-ГЛЛИИ-УУ-Сферы Творчества АИЙ-ЙЯ</v>
       </c>
       <c r="J229" s="3" t="s">
@@ -12267,7 +12268,7 @@
         <v>562</v>
       </c>
       <c r="D230" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E230" s="3" t="s">
@@ -12277,15 +12278,15 @@
         <v>639</v>
       </c>
       <c r="G230" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 5</v>
       </c>
       <c r="H230" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 5</v>
       </c>
       <c r="I230" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Космические План-Уровни НАА-ГЛЛИИ-УУ-Сферы Творчества АИЙ-ЙЯ</v>
       </c>
       <c r="J230" s="3" t="s">
@@ -12309,7 +12310,7 @@
         <v>562</v>
       </c>
       <c r="D231" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E231" s="3" t="s">
@@ -12319,15 +12320,15 @@
         <v>649</v>
       </c>
       <c r="G231" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 6</v>
       </c>
       <c r="H231" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 6</v>
       </c>
       <c r="I231" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>План-Обертоны ЭИЙГ-СС-МИИ-Сферы Творчества АИЙ-ЙЯ</v>
       </c>
       <c r="J231" s="3" t="s">
@@ -12351,7 +12352,7 @@
         <v>562</v>
       </c>
       <c r="D232" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E232" s="3" t="s">
@@ -12361,15 +12362,15 @@
         <v>649</v>
       </c>
       <c r="G232" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 6</v>
       </c>
       <c r="H232" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 6</v>
       </c>
       <c r="I232" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>План-Обертоны ЭИЙГ-СС-МИИ-Сферы Творчества АИЙ-ЙЯ</v>
       </c>
       <c r="J232" s="3" t="s">
@@ -12393,7 +12394,7 @@
         <v>562</v>
       </c>
       <c r="D233" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E233" s="3" t="s">
@@ -12403,15 +12404,15 @@
         <v>649</v>
       </c>
       <c r="G233" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 6</v>
       </c>
       <c r="H233" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 6</v>
       </c>
       <c r="I233" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>План-Обертоны ЭИЙГ-СС-МИИ-Сферы Творчества АИЙ-ЙЯ</v>
       </c>
       <c r="J233" s="3" t="s">
@@ -12435,7 +12436,7 @@
         <v>562</v>
       </c>
       <c r="D234" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E234" s="3" t="s">
@@ -12445,15 +12446,15 @@
         <v>649</v>
       </c>
       <c r="G234" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 6</v>
       </c>
       <c r="H234" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 6</v>
       </c>
       <c r="I234" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>План-Обертоны ЭИЙГ-СС-МИИ-Сферы Творчества АИЙ-ЙЯ</v>
       </c>
       <c r="J234" s="3" t="s">
@@ -12477,7 +12478,7 @@
         <v>562</v>
       </c>
       <c r="D235" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E235" s="3" t="s">
@@ -12487,15 +12488,15 @@
         <v>649</v>
       </c>
       <c r="G235" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 6</v>
       </c>
       <c r="H235" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 6</v>
       </c>
       <c r="I235" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>План-Обертоны ЭИЙГ-СС-МИИ-Сферы Творчества АИЙ-ЙЯ</v>
       </c>
       <c r="J235" s="3" t="s">
@@ -12519,7 +12520,7 @@
         <v>562</v>
       </c>
       <c r="D236" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E236" s="3" t="s">
@@ -12529,15 +12530,15 @@
         <v>649</v>
       </c>
       <c r="G236" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 6</v>
       </c>
       <c r="H236" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 6</v>
       </c>
       <c r="I236" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>План-Обертоны ЭИЙГ-СС-МИИ-Сферы Творчества АИЙ-ЙЯ</v>
       </c>
       <c r="J236" s="3" t="s">
@@ -12561,7 +12562,7 @@
         <v>562</v>
       </c>
       <c r="D237" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E237" s="3" t="s">
@@ -12571,15 +12572,15 @@
         <v>649</v>
       </c>
       <c r="G237" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 6</v>
       </c>
       <c r="H237" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 6</v>
       </c>
       <c r="I237" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>План-Обертоны ЭИЙГ-СС-МИИ-Сферы Творчества АИЙ-ЙЯ</v>
       </c>
       <c r="J237" s="3" t="s">
@@ -12603,7 +12604,7 @@
         <v>562</v>
       </c>
       <c r="D238" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Основы / Раздел ХII</v>
       </c>
       <c r="E238" s="3" t="s">
@@ -12613,15 +12614,15 @@
         <v>649</v>
       </c>
       <c r="G238" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Глава 6</v>
       </c>
       <c r="H238" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Основы / Раздел ХII / Глава 6</v>
       </c>
       <c r="I238" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>План-Обертоны ЭИЙГ-СС-МИИ-Сферы Творчества АИЙ-ЙЯ</v>
       </c>
       <c r="J238" s="3" t="s">
